--- a/run/output/iecorrect-template.xlsx
+++ b/run/output/iecorrect-template.xlsx
@@ -16,39 +16,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>varname</t>
+  </si>
+  <si>
+    <t>idvalue</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>valuecurrent</t>
+  </si>
+  <si>
+    <t>initials</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>varname</t>
+  </si>
+  <si>
+    <t>idvalue</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>valuecurrent</t>
+  </si>
+  <si>
+    <t>initials</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
   <si>
     <t>strvar</t>
   </si>
   <si>
+    <t>strvaluecurrent</t>
+  </si>
+  <si>
+    <t>strvalue</t>
+  </si>
+  <si>
+    <t>catvar</t>
+  </si>
+  <si>
+    <t>catvalue</t>
+  </si>
+  <si>
+    <t>initials</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
     <t>idvalue</t>
   </si>
   <si>
-    <t>valuecurrent</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>initials</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>numvar</t>
-  </si>
-  <si>
-    <t>strvaluecurrent</t>
-  </si>
-  <si>
-    <t>strvalue</t>
-  </si>
-  <si>
-    <t>catvar</t>
-  </si>
-  <si>
-    <t>catvalue</t>
+    <t>initials</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -139,19 +172,19 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -173,25 +206,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -214,13 +247,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
